--- a/statistics/random_walk/intra_randomwalk_modified.xlsx
+++ b/statistics/random_walk/intra_randomwalk_modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\random_walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C3832B-457B-43E5-949A-A50E27605378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E132B37-39E7-4D2F-A0E6-64E9CCA256E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="intra_randomwalk_modified" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'intra_randomwalk_modified (2)'!$A$1:$E$56</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'intra_randomwalk_modified (2)'!$A$1:$E$91</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="148">
   <si>
     <t>graph_file,n_experiments,sample_percent,polarity,type,avg_walklength</t>
   </si>
@@ -320,6 +320,162 @@
   </si>
   <si>
     <t>Modified</t>
+  </si>
+  <si>
+    <t>lgbt_top_modified.txt</t>
+  </si>
+  <si>
+    <t>16.0278</t>
+  </si>
+  <si>
+    <t>7.567</t>
+  </si>
+  <si>
+    <t>18.6645</t>
+  </si>
+  <si>
+    <t>lgbt_controversial_modified.txt</t>
+  </si>
+  <si>
+    <t>19.7313</t>
+  </si>
+  <si>
+    <t>8.2515</t>
+  </si>
+  <si>
+    <t>28.45</t>
+  </si>
+  <si>
+    <t>lgbt_both_modified.txt</t>
+  </si>
+  <si>
+    <t>16.7416</t>
+  </si>
+  <si>
+    <t>14.2045</t>
+  </si>
+  <si>
+    <t>27.928</t>
+  </si>
+  <si>
+    <t>Conservative_top_modified.txt</t>
+  </si>
+  <si>
+    <t>15.5083</t>
+  </si>
+  <si>
+    <t>5.0565</t>
+  </si>
+  <si>
+    <t>17.1205</t>
+  </si>
+  <si>
+    <t>Conservative_controversial_modified.txt</t>
+  </si>
+  <si>
+    <t>19.5573</t>
+  </si>
+  <si>
+    <t>1.0075</t>
+  </si>
+  <si>
+    <t>13.997</t>
+  </si>
+  <si>
+    <t>Conservative_both_modified.txt</t>
+  </si>
+  <si>
+    <t>15.4258</t>
+  </si>
+  <si>
+    <t>5.0515</t>
+  </si>
+  <si>
+    <t>16.9185</t>
+  </si>
+  <si>
+    <t>conspiracy0_top_modified.txt</t>
+  </si>
+  <si>
+    <t>17.1886</t>
+  </si>
+  <si>
+    <t>15.925</t>
+  </si>
+  <si>
+    <t>35.885</t>
+  </si>
+  <si>
+    <t>conspiracy0_controversial_modified.txt</t>
+  </si>
+  <si>
+    <t>18.1593</t>
+  </si>
+  <si>
+    <t>1.002</t>
+  </si>
+  <si>
+    <t>3.399</t>
+  </si>
+  <si>
+    <t>conspiracy0_both_modified.txt</t>
+  </si>
+  <si>
+    <t>17.5103</t>
+  </si>
+  <si>
+    <t>15.2735</t>
+  </si>
+  <si>
+    <t>42.4885</t>
+  </si>
+  <si>
+    <t>space_top_modified.txt</t>
+  </si>
+  <si>
+    <t>18.2453</t>
+  </si>
+  <si>
+    <t>9.74</t>
+  </si>
+  <si>
+    <t>55.6455</t>
+  </si>
+  <si>
+    <t>space_controversial_modified.txt</t>
+  </si>
+  <si>
+    <t>21.8377</t>
+  </si>
+  <si>
+    <t>2.096</t>
+  </si>
+  <si>
+    <t>60.101</t>
+  </si>
+  <si>
+    <t>space_both_modified.txt</t>
+  </si>
+  <si>
+    <t>18.2674</t>
+  </si>
+  <si>
+    <t>11.391</t>
+  </si>
+  <si>
+    <t>55.3705</t>
+  </si>
+  <si>
+    <t>lgbt</t>
+  </si>
+  <si>
+    <t>Conservative</t>
+  </si>
+  <si>
+    <t>conspiracy0</t>
+  </si>
+  <si>
+    <t>space</t>
   </si>
 </sst>
 </file>
@@ -673,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -908,34 +1064,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -949,10 +1077,166 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color theme="9" tint="0.39997558519241921"/>
       </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1002,19 +1286,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1022,20 +1303,41 @@
     <xf numFmtId="2" fontId="0" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1131,8 +1433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="intra_randomwalk_modified" displayName="intra_randomwalk_modified" ref="A1:E56" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:E56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="intra_randomwalk_modified" displayName="intra_randomwalk_modified" ref="A1:E91" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E91" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="graph_file" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="n_experiments" queryTableFieldId="2" dataDxfId="3"/>
@@ -1441,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,24 +1811,24 @@
       <c r="E3">
         <v>15.2225</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1544,7 +1846,7 @@
       <c r="E4">
         <v>21.847000000000001</v>
       </c>
-      <c r="I4" s="27"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1592,31 +1894,31 @@
       <c r="I5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <v>0.28420000000000001</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>0.504</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <v>0.2903</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <v>0.30249999999999999</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="16">
         <v>0.72140000000000004</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="7">
         <v>0.33389999999999997</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="8">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="7">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="9">
         <v>1.72E-2</v>
       </c>
     </row>
@@ -1639,31 +1941,31 @@
       <c r="I6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <v>0.254</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="11">
         <v>0.6109</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="10">
         <v>0.27029999999999998</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="11">
         <v>0.25950000000000001</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="12">
         <v>0.873</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="11">
         <v>0.32229999999999998</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="12">
         <v>-2.7E-2</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="11">
         <v>0.20910000000000001</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="13">
         <v>-5.21E-2</v>
       </c>
     </row>
@@ -1686,35 +1988,35 @@
       <c r="I7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <v>0.55969999999999998</v>
       </c>
       <c r="K7" s="4">
         <v>0.90620000000000001</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="11">
         <v>0.51729999999999998</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="10">
         <v>0.71809999999999996</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="17">
         <v>0.998</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <v>0.66439999999999999</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="14">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="Q7" s="4">
         <v>0.8014</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="15">
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1730,38 +2032,38 @@
       <c r="E8">
         <v>14.480399999999999</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="27">
         <v>0.4133</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="29">
         <v>-0.35659999999999997</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="27">
         <v>0.4168</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="29">
         <v>0.35930000000000001</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="31">
         <v>-0.50149999999999995</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="29">
         <v>0.35570000000000002</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="31">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="29">
         <v>-0.51390000000000002</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="32">
         <v>-1.14E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1780,35 +2082,35 @@
       <c r="I9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="33">
         <v>0.55649999999999999</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="34">
         <v>0.77310000000000001</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="33">
         <v>0.56310000000000004</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="35">
         <v>0.57830000000000004</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="36">
         <v>0.98229999999999995</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="35">
         <v>0.5796</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="37">
         <v>0.27350000000000002</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="35">
         <v>0.6643</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="38">
         <v>0.3286</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1824,38 +2126,38 @@
       <c r="E10">
         <v>20.768999999999998</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="27">
         <v>0.35170000000000001</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="28">
         <v>0.82869999999999999</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="27">
         <v>0.34849999999999998</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="29">
         <v>0.37340000000000001</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="30">
         <v>0.98299999999999998</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="29">
         <v>0.3664</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="31">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="29">
         <v>0.70509999999999995</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="32">
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -1871,8 +2173,38 @@
       <c r="E11">
         <v>17.1113</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I11" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="41">
+        <v>0.37409999999999999</v>
+      </c>
+      <c r="K11" s="42">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="L11" s="41">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="M11" s="42">
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="N11" s="41">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="O11" s="42">
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="P11" s="41">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="R11" s="43">
+        <v>0.1047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1888,8 +2220,38 @@
       <c r="E12">
         <v>11.9025</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I12" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="45">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="L12" s="45">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="M12" s="26">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="N12" s="45">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="O12" s="26">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="P12" s="45">
+        <v>2E-3</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="R12" s="46">
+        <v>-7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -1905,7 +2267,36 @@
       <c r="E13">
         <v>30.361499999999999</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="I13" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="39">
+        <v>0.4914</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.95E-2</v>
+      </c>
+      <c r="L13" s="24">
+        <v>0.58130000000000004</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="N13" s="24">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.63680000000000003</v>
+      </c>
+      <c r="P13" s="24">
+        <v>0.1021</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="R13" s="25">
+        <v>0.26079999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1923,6 +2314,36 @@
       <c r="E14">
         <v>20.774100000000001</v>
       </c>
+      <c r="I14" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="N14" s="22">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="P14" s="22">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="R14" s="23">
+        <v>0.1104</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2619,6 +3040,618 @@
       </c>
       <c r="E55">
         <v>20.2865</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>0.37409999999999999</v>
+      </c>
+      <c r="D56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>0.1047</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="D65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="D66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67">
+        <v>2E-3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="D68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="D71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73">
+        <v>-7.7499999999999999E-2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74">
+        <v>0.4914</v>
+      </c>
+      <c r="D74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76">
+        <v>0.1021</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77">
+        <v>1.95E-2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>62</v>
+      </c>
+      <c r="E77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="D78" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80">
+        <v>0.58130000000000004</v>
+      </c>
+      <c r="D80" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81">
+        <v>0.63680000000000003</v>
+      </c>
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="D83" t="s">
+        <v>62</v>
+      </c>
+      <c r="E83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="D84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="D86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="D87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="D89" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="D90" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91">
+        <v>0.1104</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
